--- a/public/EmployeeData/RINCIAN HARIAN JUL 22(1)-1 - edit2.xlsx
+++ b/public/EmployeeData/RINCIAN HARIAN JUL 22(1)-1 - edit2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\joki\codecanyon-iMuwzIOg-hrmgo-saas-hrm-and-payroll-tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75085F95-C291-44AE-88AF-9E071B651EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FCBEC0-BF72-4B2C-9ED0-A1E1ACFB0CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="912" yWindow="-108" windowWidth="22236" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="86">
-  <si>
-    <t>bakarabu351@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>2022-07-01 07:59:27</t>
   </si>
@@ -36,253 +33,7 @@
     <t>2022-07-01 17:54:55</t>
   </si>
   <si>
-    <t>2022-07-02 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-03 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-04 07:11:04</t>
-  </si>
-  <si>
-    <t>2022-07-04 17:19:06</t>
-  </si>
-  <si>
-    <t>2022-07-05 07:14:16</t>
-  </si>
-  <si>
-    <t>2022-07-05 17:11:58</t>
-  </si>
-  <si>
-    <t>2022-07-06 07:11:59</t>
-  </si>
-  <si>
-    <t>2022-07-06 18:02:48</t>
-  </si>
-  <si>
-    <t>2022-07-07 07:19:24</t>
-  </si>
-  <si>
-    <t>2022-07-07 17:53:20</t>
-  </si>
-  <si>
-    <t>2022-07-08 07:13:02</t>
-  </si>
-  <si>
-    <t>2022-07-08 17:42:32</t>
-  </si>
-  <si>
-    <t>2022-07-09 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-10 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-11 06:54:20</t>
-  </si>
-  <si>
-    <t>2022-07-11 17:19:49</t>
-  </si>
-  <si>
-    <t>2022-07-12 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-13 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-14 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-15 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-16 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-17 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-18 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-19 07:09:43</t>
-  </si>
-  <si>
-    <t>2022-07-19 16:55:37</t>
-  </si>
-  <si>
-    <t>2022-07-20 07:03:15</t>
-  </si>
-  <si>
-    <t>2022-07-20 17:50:22</t>
-  </si>
-  <si>
-    <t>adrianaryawardanagbb@gmail.com</t>
-  </si>
-  <si>
-    <t>2022-07-01 07:50:05</t>
-  </si>
-  <si>
-    <t>2022-07-01 17:42:37</t>
-  </si>
-  <si>
-    <t>2022-07-04 07:51:51</t>
-  </si>
-  <si>
-    <t>2022-07-04 17:55:54</t>
-  </si>
-  <si>
-    <t>2022-07-05 07:45:00</t>
-  </si>
-  <si>
-    <t>2022-07-05 18:03:47</t>
-  </si>
-  <si>
-    <t>2022-07-06 07:51:14</t>
-  </si>
-  <si>
-    <t>2022-07-06 17:18:07</t>
-  </si>
-  <si>
-    <t>2022-07-07 07:52:07</t>
-  </si>
-  <si>
-    <t>2022-07-07 16:50:36</t>
-  </si>
-  <si>
-    <t>2022-07-08 07:51:08</t>
-  </si>
-  <si>
-    <t>2022-07-08 00:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-11 07:52:04</t>
-  </si>
-  <si>
-    <t>2022-07-12 07:49:28</t>
-  </si>
-  <si>
-    <t>2022-07-12 17:17:40</t>
-  </si>
-  <si>
-    <t>2022-07-13 07:52:01</t>
-  </si>
-  <si>
-    <t>2022-07-14 07:56:00</t>
-  </si>
-  <si>
-    <t>2022-07-14 17:44:04</t>
-  </si>
-  <si>
-    <t>2022-07-15 07:52:18</t>
-  </si>
-  <si>
-    <t>2022-07-15 18:12:47</t>
-  </si>
-  <si>
-    <t>2022-07-18 07:51:51</t>
-  </si>
-  <si>
-    <t>2022-07-18 18:02:48</t>
-  </si>
-  <si>
-    <t>2022-07-19 07:53:16</t>
-  </si>
-  <si>
-    <t>2022-07-19 17:41:36</t>
-  </si>
-  <si>
-    <t>2022-07-20 07:53:24</t>
-  </si>
-  <si>
-    <t>2022-07-20 17:10:02</t>
-  </si>
-  <si>
-    <t>ramlinina33@gmail.com</t>
-  </si>
-  <si>
-    <t>2022-07-01 07:40:59</t>
-  </si>
-  <si>
-    <t>2022-07-01 17:44:18</t>
-  </si>
-  <si>
-    <t>2022-07-04 07:43:58</t>
-  </si>
-  <si>
-    <t>2022-07-04 17:19:57</t>
-  </si>
-  <si>
-    <t>2022-07-05 07:47:09</t>
-  </si>
-  <si>
-    <t>2022-07-05 17:47:10</t>
-  </si>
-  <si>
-    <t>2022-07-06 07:47:25</t>
-  </si>
-  <si>
-    <t>2022-07-06 17:35:49</t>
-  </si>
-  <si>
-    <t>2022-07-07 07:49:25</t>
-  </si>
-  <si>
-    <t>2022-07-07 17:01:12</t>
-  </si>
-  <si>
-    <t>2022-07-08 07:46:59</t>
-  </si>
-  <si>
-    <t>2022-07-08 17:46:53</t>
-  </si>
-  <si>
-    <t>2022-07-11 07:40:21</t>
-  </si>
-  <si>
-    <t>2022-07-11 17:09:16</t>
-  </si>
-  <si>
-    <t>2022-07-12 07:46:15</t>
-  </si>
-  <si>
-    <t>2022-07-12 17:17:18</t>
-  </si>
-  <si>
-    <t>2022-07-13 07:51:14</t>
-  </si>
-  <si>
-    <t>2022-07-13 18:11:30</t>
-  </si>
-  <si>
-    <t>2022-07-14 07:48:35</t>
-  </si>
-  <si>
-    <t>2022-07-14 17:53:23</t>
-  </si>
-  <si>
-    <t>2022-07-15 07:41:57</t>
-  </si>
-  <si>
-    <t>2022-07-15 18:12:50</t>
-  </si>
-  <si>
-    <t>2022-07-18 07:48:21</t>
-  </si>
-  <si>
-    <t>2022-07-18 17:13:01</t>
-  </si>
-  <si>
-    <t>2022-07-19 07:45:56</t>
-  </si>
-  <si>
-    <t>2022-07-19 17:52:55</t>
-  </si>
-  <si>
-    <t>2022-07-20 07:46:32</t>
-  </si>
-  <si>
-    <t>2022-07-20 18:03:28</t>
+    <t>test@example.com</t>
   </si>
 </sst>
 </file>
@@ -292,9 +43,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -317,17 +76,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -642,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -653,665 +415,311 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
@@ -2115,6 +1523,9 @@
       <c r="C220" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{CB33A7D4-9E92-49E6-855F-7C8A507A0374}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
